--- a/Documents/Database.xlsx
+++ b/Documents/Database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CateProducts" sheetId="1" r:id="rId1"/>
@@ -16,53 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
   <si>
     <t>CateProducts</t>
   </si>
   <si>
-    <t>CateProductID</t>
-  </si>
-  <si>
-    <t>CateProductFatherID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>IsSpecial</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>OrderNumber</t>
-  </si>
-  <si>
     <t>Products</t>
   </si>
   <si>
-    <t>ProductID</t>
-  </si>
-  <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>CateProductName</t>
-  </si>
-  <si>
-    <t>ShortDesciption</t>
-  </si>
-  <si>
-    <t>TechDesciption</t>
-  </si>
-  <si>
-    <t>Desciption</t>
-  </si>
-  <si>
     <t>Mô tả sản phẩm</t>
   </si>
   <si>
@@ -78,117 +39,60 @@
     <t>Tên sản phẩm</t>
   </si>
   <si>
-    <t>InputPrice</t>
-  </si>
-  <si>
     <t>Giá đầu vào</t>
   </si>
   <si>
-    <t>VendorInfo</t>
-  </si>
-  <si>
     <t>Thông tin nhà cung cấp</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>MarketPrice</t>
-  </si>
-  <si>
     <t>Giá thị trường</t>
   </si>
   <si>
     <t>Giá bán VNĐ</t>
   </si>
   <si>
-    <t>PriceUSD</t>
-  </si>
-  <si>
     <t>Giá bán USD</t>
   </si>
   <si>
-    <t>UserID</t>
-  </si>
-  <si>
     <t>Người cập nhật</t>
   </si>
   <si>
     <t>Ngày cập nhật</t>
   </si>
   <si>
-    <t>DateCreate</t>
-  </si>
-  <si>
     <t>Ngày tạo</t>
   </si>
   <si>
-    <t>DateUpdate</t>
-  </si>
-  <si>
-    <t>DateDisplay</t>
-  </si>
-  <si>
     <t>Ngày hiển thị</t>
   </si>
   <si>
-    <t>DateClose</t>
-  </si>
-  <si>
     <t>Ngày đóng</t>
   </si>
   <si>
-    <t>ImageSmall</t>
-  </si>
-  <si>
     <t>Ảnh nhỏ</t>
   </si>
   <si>
-    <t>ImageLager</t>
-  </si>
-  <si>
     <t>Ảnh to</t>
   </si>
   <si>
-    <t>IsBestBuy</t>
-  </si>
-  <si>
     <t>Hàng bán chạy</t>
   </si>
   <si>
     <t>Hàng công nghệ mới</t>
   </si>
   <si>
-    <t>IsNewTech</t>
-  </si>
-  <si>
-    <t>SumView</t>
-  </si>
-  <si>
     <t>Tổng số người xem sản phẩm</t>
   </si>
   <si>
-    <t>SumBuy</t>
-  </si>
-  <si>
     <t>Tổng số hàng đã bán</t>
   </si>
   <si>
-    <t>IsHotDeal</t>
-  </si>
-  <si>
     <t>Hàng hot</t>
   </si>
   <si>
-    <t>UserIDSuport</t>
-  </si>
-  <si>
     <t>Người tư vấn trực tiếp</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>Số thứ tự</t>
   </si>
   <si>
@@ -198,54 +102,15 @@
     <t>User</t>
   </si>
   <si>
-    <t>UserName</t>
-  </si>
-  <si>
     <t>Mã người dùng</t>
   </si>
   <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>PassWord</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>Mobiphone</t>
-  </si>
-  <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>UserKey</t>
-  </si>
-  <si>
     <t>Ngày truy cập gần nhất</t>
   </si>
   <si>
-    <t>DateLastView</t>
-  </si>
-  <si>
-    <t>IsAdmin</t>
-  </si>
-  <si>
-    <t>Phân loại Admin hay người dùng</t>
-  </si>
-  <si>
-    <t>Yahoo</t>
-  </si>
-  <si>
-    <t>Skype</t>
-  </si>
-  <si>
     <t>Kích hoạt hay ngừng kích hoạt</t>
   </si>
   <si>
@@ -298,6 +163,162 @@
   </si>
   <si>
     <t>Ảnh đại diện</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>userKey</t>
+  </si>
+  <si>
+    <t>fullName</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>moderators</t>
+  </si>
+  <si>
+    <t>isActive</t>
+  </si>
+  <si>
+    <t>Quản lý sản phẩm theo danh mục</t>
+  </si>
+  <si>
+    <t>skype</t>
+  </si>
+  <si>
+    <t>yahoo</t>
+  </si>
+  <si>
+    <t>dateLastView</t>
+  </si>
+  <si>
+    <t>dateCreate</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>mobiphone</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>passWord</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>userID</t>
+  </si>
+  <si>
+    <t>productID</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>cateProductID</t>
+  </si>
+  <si>
+    <t>shortDesciption</t>
+  </si>
+  <si>
+    <t>techDesciption</t>
+  </si>
+  <si>
+    <t>desciption</t>
+  </si>
+  <si>
+    <t>inputPrice</t>
+  </si>
+  <si>
+    <t>vendorInfo</t>
+  </si>
+  <si>
+    <t>priceVnd</t>
+  </si>
+  <si>
+    <t>marketPrice</t>
+  </si>
+  <si>
+    <t>dateUpdate</t>
+  </si>
+  <si>
+    <t>dateDisplay</t>
+  </si>
+  <si>
+    <t>dateClose</t>
+  </si>
+  <si>
+    <t>imageSmall</t>
+  </si>
+  <si>
+    <t>imageLager</t>
+  </si>
+  <si>
+    <t>isBestBuy</t>
+  </si>
+  <si>
+    <t>isNewTech</t>
+  </si>
+  <si>
+    <t>isHotDeal</t>
+  </si>
+  <si>
+    <t>sumView</t>
+  </si>
+  <si>
+    <t>sumBuy</t>
+  </si>
+  <si>
+    <t>userIDSuport</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>cateProductName</t>
+  </si>
+  <si>
+    <t>cateProductFatherID</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>isSpecial</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>orderNumber</t>
+  </si>
+  <si>
+    <t>priceUsd</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Một số ghi chú</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Tình trạng: online/offline…</t>
   </si>
 </sst>
 </file>
@@ -648,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -664,66 +685,66 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -734,10 +755,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:F29"/>
+  <dimension ref="B3:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -747,215 +768,231 @@
   <sheetData>
     <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -965,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:D19"/>
+  <dimension ref="A3:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -976,137 +1013,173 @@
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>69</v>
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
       <c r="B9" t="s">
         <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
